--- a/test/test169a.xlsx
+++ b/test/test169a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -372,7 +372,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetData/>
+  <dimension ref="A1:C4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Hello</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Warsaw</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>World!</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Quito</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>